--- a/Mein Product Backlog.xlsx
+++ b/Mein Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\0_Studium\9. Semester\Softwareentwicklung (Prof. Santana)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AD109F-2ADB-4E37-AD7D-5C0A17A207FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3B45E1-B764-46F6-94FC-4E309223BA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
   <si>
     <t>Name of the Product/Service:</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Must Have</t>
-  </si>
-  <si>
-    <t>Task1, Task2....Taskn</t>
   </si>
   <si>
     <t>US2</t>
@@ -359,21 +356,12 @@
     <t>..I can buy them</t>
   </si>
   <si>
-    <t>search for keywords</t>
-  </si>
-  <si>
-    <t>..I can find comics and their authors</t>
-  </si>
-  <si>
     <t>Could Have</t>
   </si>
   <si>
     <t>salesman</t>
   </si>
   <si>
-    <t>add new comics</t>
-  </si>
-  <si>
     <t>..I can sell them</t>
   </si>
   <si>
@@ -419,34 +407,85 @@
     <t>US9</t>
   </si>
   <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>select different comics from a list</t>
-  </si>
-  <si>
     <t>..I can pay online</t>
   </si>
   <si>
-    <t>User sees a list of different comics and can select one to see it in a single view</t>
-  </si>
-  <si>
-    <t>User can create new comic-objects</t>
-  </si>
-  <si>
     <t>User can create special announcement-objects</t>
   </si>
   <si>
-    <t>User can deposit his name, an Email-Address, and a Paypal-Account</t>
-  </si>
-  <si>
     <t>User can save a list of comic-objects and announcement-objects and transfer it to a Email-Address</t>
   </si>
   <si>
-    <t>User sees a search bar</t>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>external user</t>
+  </si>
+  <si>
+    <t>have a restful API</t>
+  </si>
+  <si>
+    <t>..I can retrieve data about a comic book</t>
+  </si>
+  <si>
+    <t>select different comics from a list (search by categories, title)</t>
+  </si>
+  <si>
+    <t>create an account with email confirmation</t>
+  </si>
+  <si>
+    <t>customer, salesman</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer </t>
+  </si>
+  <si>
+    <t>order a comic book</t>
+  </si>
+  <si>
+    <t>add new comics to the list</t>
+  </si>
+  <si>
+    <t>..I can access my account</t>
+  </si>
+  <si>
+    <t>..it can be sent to my address</t>
+  </si>
+  <si>
+    <t>..I get messages when somebody buys something</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>User can deposit his name, an address, an Email-Address, and a Paypal-Account</t>
+  </si>
+  <si>
+    <t>User can deposit the same informations as in other accounts, but also see the informations of customer-accounts which are hidden for normal users</t>
+  </si>
+  <si>
+    <t>User sees a list of different comics and can select one to see it in a single view, there is also a search bar</t>
+  </si>
+  <si>
+    <t>User can access the shop and access an account-view</t>
+  </si>
+  <si>
+    <t>User can create a new comic-object</t>
+  </si>
+  <si>
+    <t>User can make CRUD-Operations on a comic-object through an API</t>
+  </si>
+  <si>
+    <t>User can press a buy-button in the single view of a comic-object, then it will be sent to his address</t>
   </si>
 </sst>
 </file>
@@ -919,7 +958,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
@@ -1148,18 +1187,19 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.1796875" customWidth="1"/>
     <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" customWidth="1"/>
-    <col min="5" max="5" width="35.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="51.7265625" customWidth="1"/>
+    <col min="5" max="5" width="44.26953125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="8" width="10.1796875" customWidth="1"/>
-    <col min="9" max="9" width="27.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" customWidth="1"/>
     <col min="10" max="10" width="21.26953125" customWidth="1"/>
     <col min="11" max="11" width="15.81640625" customWidth="1"/>
   </cols>
@@ -1234,13 +1274,13 @@
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>34</v>
@@ -1249,30 +1289,30 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -1280,25 +1320,28 @@
       <c r="G7">
         <v>2</v>
       </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -1306,112 +1349,192 @@
       <c r="G8">
         <v>3</v>
       </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>6</v>
       </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1440,7 +1563,7 @@
     </row>
     <row r="3" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -1450,20 +1573,20 @@
     </row>
     <row r="6" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -1471,47 +1594,47 @@
     </row>
     <row r="11" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Mein Product Backlog.xlsx
+++ b/Mein Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\0_Studium\9. Semester\Softwareentwicklung (Prof. Santana)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3B45E1-B764-46F6-94FC-4E309223BA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB15CD88-90A5-4D11-81E7-A26691C1DE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
   <si>
     <t>Name of the Product/Service:</t>
   </si>
@@ -332,9 +332,6 @@
     <t>If you need to understand more about the  Value Proposition Canvas and how to fill this TAB :https://www.youtube.com/watch?v=aN36EcTE54Q&amp;</t>
   </si>
   <si>
-    <t>See Categories</t>
-  </si>
-  <si>
     <t>Fibonacci Series</t>
   </si>
   <si>
@@ -486,6 +483,9 @@
   </si>
   <si>
     <t>User can press a buy-button in the single view of a comic-object, then it will be sent to his address</t>
+  </si>
+  <si>
+    <t>To be started</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1186,8 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1198,9 +1198,10 @@
     <col min="4" max="4" width="51.7265625" customWidth="1"/>
     <col min="5" max="5" width="44.26953125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" customWidth="1"/>
     <col min="9" max="9" width="13.81640625" customWidth="1"/>
-    <col min="10" max="10" width="21.26953125" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
     <col min="11" max="11" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1274,13 +1275,13 @@
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>34</v>
@@ -1288,14 +1289,17 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>93</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
@@ -1303,16 +1307,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -1320,11 +1324,17 @@
       <c r="G7">
         <v>2</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
         <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
@@ -1332,16 +1342,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -1349,11 +1359,17 @@
       <c r="G8">
         <v>3</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
@@ -1361,45 +1377,51 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
         <v>86</v>
       </c>
-      <c r="D9" t="s">
-        <v>87</v>
-      </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
       <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
         <v>88</v>
       </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -1407,28 +1429,34 @@
       <c r="G10">
         <v>5</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
         <v>68</v>
       </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
       <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
         <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -1436,28 +1464,34 @@
       <c r="G11">
         <v>6</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
         <v>81</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>82</v>
-      </c>
-      <c r="E12" t="s">
-        <v>83</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -1465,69 +1499,87 @@
       <c r="G12">
         <v>7</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13">
         <v>8</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14">
         <v>9</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1573,15 +1625,15 @@
     </row>
     <row r="6" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
         <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
